--- a/test_signup/Amsterdam/NTDS_Utrecht.xlsx
+++ b/test_signup/Amsterdam/NTDS_Utrecht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20400" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="21600" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="311">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -950,16 +947,16 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,18 +1352,18 @@
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1378,16 +1375,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1396,66 +1393,63 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
@@ -1471,30 +1465,30 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H3" s="2">
         <v>24</v>
@@ -1503,10 +1497,10 @@
         <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1518,41 +1512,41 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="S4" s="2"/>
@@ -1564,25 +1558,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
@@ -1591,10 +1585,10 @@
         <v>8</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1608,38 +1602,38 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H6" s="2">
         <v>13</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>5</v>
@@ -1657,28 +1651,28 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H7" s="2">
         <v>46</v>
@@ -1687,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1707,25 +1701,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H8" s="2">
         <v>21</v>
@@ -1734,10 +1728,10 @@
         <v>21</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1752,25 +1746,25 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1779,10 +1773,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1797,33 +1791,33 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1836,39 +1830,39 @@
         <v>5</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1879,29 +1873,29 @@
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H12" s="2">
         <v>52</v>
@@ -1910,10 +1904,10 @@
         <v>52</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1927,28 +1921,28 @@
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H13" s="2">
         <v>25</v>
@@ -1957,10 +1951,10 @@
         <v>25</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1973,43 +1967,43 @@
         <v>5</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H14" s="2">
         <v>5</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2023,28 +2017,28 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H15" s="2">
         <v>40</v>
@@ -2053,10 +2047,10 @@
         <v>40</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2069,33 +2063,33 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2109,7 +2103,7 @@
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -2117,22 +2111,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H17" s="2">
         <v>37</v>
@@ -2141,10 +2135,10 @@
         <v>37</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2164,28 +2158,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>5</v>
@@ -2203,7 +2197,7 @@
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -2211,20 +2205,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H19" s="2">
         <v>27</v>
@@ -2233,10 +2227,10 @@
         <v>27</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2256,20 +2250,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H20" s="2">
         <v>35</v>
@@ -2278,10 +2272,10 @@
         <v>35</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2299,22 +2293,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H21" s="2">
         <v>30</v>
@@ -2323,10 +2317,10 @@
         <v>30</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2339,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V21" s="2"/>
     </row>
@@ -2348,20 +2342,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H22" s="2">
         <v>7</v>
@@ -2370,10 +2364,10 @@
         <v>7</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2384,7 +2378,7 @@
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V22" s="2"/>
     </row>
@@ -2393,20 +2387,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H23" s="2">
         <v>57</v>
@@ -2415,10 +2409,10 @@
         <v>57</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2429,7 +2423,7 @@
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V23" s="2"/>
     </row>
@@ -2438,20 +2432,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H24" s="2">
         <v>55</v>
@@ -2460,10 +2454,10 @@
         <v>55</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2477,7 +2471,7 @@
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2485,22 +2479,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H25" s="2">
         <v>2</v>
@@ -2509,10 +2503,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2526,7 +2520,7 @@
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2534,20 +2528,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H26" s="2">
         <v>12</v>
@@ -2556,10 +2550,10 @@
         <v>12</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2573,7 +2567,7 @@
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2581,22 +2575,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H27" s="2">
         <v>42</v>
@@ -2605,10 +2599,10 @@
         <v>42</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2619,7 +2613,7 @@
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V27" s="2"/>
     </row>
@@ -2628,20 +2622,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H28" s="2">
         <v>18</v>
@@ -2650,10 +2644,10 @@
         <v>18</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2673,28 +2667,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2719,28 +2713,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>5</v>
@@ -2761,7 +2755,7 @@
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2769,22 +2763,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H31" s="2">
         <v>20</v>
@@ -2793,10 +2787,10 @@
         <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2810,7 +2804,7 @@
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2818,28 +2812,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2859,30 +2853,30 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>5</v>
@@ -2906,28 +2900,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2941,7 +2935,7 @@
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -2949,30 +2943,30 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -2985,10 +2979,10 @@
         <v>5</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -2996,20 +2990,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H36" s="2">
         <v>19</v>
@@ -3018,10 +3012,10 @@
         <v>19</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3034,10 +3028,10 @@
         <v>5</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -3045,20 +3039,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H37" s="2">
         <v>41</v>
@@ -3067,10 +3061,10 @@
         <v>41</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3090,20 +3084,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H38" s="2">
         <v>16</v>
@@ -3112,10 +3106,10 @@
         <v>16</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3135,22 +3129,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H39" s="3">
         <v>87</v>
@@ -3159,10 +3153,10 @@
         <v>87</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3182,28 +3176,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>5</v>
@@ -3225,20 +3219,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H41" s="2">
         <v>14</v>
@@ -3247,10 +3241,10 @@
         <v>14</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3261,10 +3255,10 @@
         <v>5</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3272,22 +3266,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H42" s="2">
         <v>36</v>
@@ -3296,10 +3290,10 @@
         <v>36</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3319,22 +3313,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H43" s="2">
         <v>26</v>
@@ -3343,10 +3337,10 @@
         <v>26</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3366,28 +3360,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>5</v>
@@ -3411,20 +3405,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H45" s="2">
         <v>47</v>
@@ -3433,15 +3427,15 @@
         <v>47</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="S45" s="2" t="s">
@@ -3452,7 +3446,7 @@
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3460,20 +3454,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H46" s="2">
         <v>67</v>
@@ -3482,10 +3476,10 @@
         <v>67</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3499,7 +3493,7 @@
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -3507,20 +3501,20 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H47" s="2">
         <v>6</v>
@@ -3529,10 +3523,10 @@
         <v>6</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3548,20 +3542,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H48" s="2">
         <v>44</v>
@@ -3570,10 +3564,10 @@
         <v>44</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -3585,7 +3579,7 @@
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -3593,28 +3587,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -3626,7 +3620,7 @@
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -3634,30 +3628,30 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -3677,28 +3671,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -3719,28 +3713,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>5</v>
@@ -3755,7 +3749,7 @@
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V52" s="2"/>
     </row>
@@ -3764,22 +3758,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H53" s="2">
         <v>11</v>
@@ -3788,10 +3782,10 @@
         <v>11</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3803,7 +3797,7 @@
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -3811,22 +3805,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H54" s="2">
         <v>54</v>
@@ -3835,10 +3829,10 @@
         <v>54</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3852,7 +3846,7 @@
       </c>
       <c r="U54" s="2"/>
       <c r="V54" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -3860,20 +3854,20 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H55" s="2">
         <v>53</v>
@@ -3882,10 +3876,10 @@
         <v>53</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3898,10 +3892,10 @@
         <v>5</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -3909,20 +3903,20 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H56" s="2">
         <v>23</v>
@@ -3931,10 +3925,10 @@
         <v>23</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3947,10 +3941,10 @@
         <v>5</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -3958,28 +3952,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3995,20 +3989,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H58" s="2">
         <v>22</v>
@@ -4017,10 +4011,10 @@
         <v>22</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4032,7 +4026,7 @@
       </c>
       <c r="U58" s="2"/>
       <c r="V58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -4040,20 +4034,20 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H59" s="2">
         <v>72</v>
@@ -4062,10 +4056,10 @@
         <v>72</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4079,7 +4073,7 @@
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -4087,28 +4081,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>5</v>
@@ -4139,30 +4133,30 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4186,28 +4180,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>5</v>
@@ -4224,10 +4218,10 @@
         <v>5</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -4235,30 +4229,30 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4272,7 +4266,7 @@
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -4280,20 +4274,20 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H64" s="2">
         <v>80</v>
@@ -4302,10 +4296,10 @@
         <v>80</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4317,7 +4311,7 @@
       </c>
       <c r="U64" s="2"/>
       <c r="V64" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -4325,22 +4319,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="2"/>
@@ -4357,28 +4351,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>5</v>
@@ -4411,20 +4405,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H67" s="2">
         <v>74</v>
@@ -4433,10 +4427,10 @@
         <v>74</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4452,22 +4446,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H68" s="2">
         <v>45</v>
@@ -4476,10 +4470,10 @@
         <v>45</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4492,7 +4486,7 @@
         <v>5</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V68" s="2"/>
     </row>
@@ -4501,22 +4495,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H69" s="2">
         <v>73</v>
@@ -4525,10 +4519,10 @@
         <v>73</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4548,28 +4542,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>5</v>
@@ -4586,7 +4580,7 @@
         <v>5</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V70" s="2"/>
     </row>
@@ -4595,22 +4589,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H71" s="2">
         <v>79</v>
@@ -4619,10 +4613,10 @@
         <v>79</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L71" s="2"/>
       <c r="O71" s="2"/>
@@ -4639,24 +4633,24 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>5</v>
@@ -4672,7 +4666,7 @@
       </c>
       <c r="U72" s="2"/>
       <c r="V72" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -4680,20 +4674,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H73" s="2">
         <v>58</v>
@@ -4702,14 +4696,14 @@
         <v>58</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="S73" s="2" t="s">
@@ -4720,7 +4714,7 @@
       </c>
       <c r="U73" s="2"/>
       <c r="V73" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -4728,20 +4722,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H74" s="2">
         <v>68</v>
@@ -4750,10 +4744,10 @@
         <v>68</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L74" s="2"/>
       <c r="O74" s="2"/>
@@ -4764,7 +4758,7 @@
       </c>
       <c r="U74" s="2"/>
       <c r="V74" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -4772,22 +4766,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H75" s="2">
         <v>66</v>
@@ -4796,10 +4790,10 @@
         <v>66</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L75" s="2"/>
       <c r="O75" s="2"/>
@@ -4816,32 +4810,32 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="S76" s="2" t="s">
@@ -4849,10 +4843,10 @@
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -4860,20 +4854,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H77" s="2">
         <v>82</v>
@@ -4882,10 +4876,10 @@
         <v>82</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L77" s="2"/>
       <c r="O77" s="2"/>
@@ -4902,20 +4896,20 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H78" s="2">
         <v>84</v>
@@ -4924,10 +4918,10 @@
         <v>84</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L78" s="2"/>
       <c r="O78" s="2"/>
@@ -4948,20 +4942,20 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H79" s="2">
         <v>83</v>
@@ -4970,10 +4964,10 @@
         <v>83</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L79" s="2"/>
       <c r="O79" s="2"/>
@@ -4986,7 +4980,7 @@
       </c>
       <c r="U79" s="2"/>
       <c r="V79" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -4994,20 +4988,20 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H80" s="2">
         <v>70</v>
@@ -5016,10 +5010,10 @@
         <v>70</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L80" s="2"/>
       <c r="O80" s="2"/>
@@ -5036,20 +5030,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H81" s="2">
         <v>63</v>
@@ -5058,10 +5052,10 @@
         <v>63</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L81" s="2"/>
       <c r="O81" s="2"/>
@@ -5074,7 +5068,7 @@
       </c>
       <c r="U81" s="2"/>
       <c r="V81" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -5082,28 +5076,28 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L82" s="2"/>
       <c r="O82" s="2"/>
@@ -5116,7 +5110,7 @@
       </c>
       <c r="U82" s="2"/>
       <c r="V82" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -5124,22 +5118,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H83" s="2">
         <v>76</v>
@@ -5148,10 +5142,10 @@
         <v>76</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L83" s="2"/>
       <c r="O83" s="2"/>
@@ -5161,7 +5155,7 @@
       </c>
       <c r="T83" s="2"/>
       <c r="U83" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V83" s="2"/>
     </row>
@@ -5170,20 +5164,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H84" s="2">
         <v>78</v>
@@ -5192,10 +5186,10 @@
         <v>78</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L84" s="2"/>
       <c r="O84" s="2"/>
@@ -5205,7 +5199,7 @@
       </c>
       <c r="T84" s="2"/>
       <c r="U84" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V84" s="2"/>
     </row>
@@ -5214,20 +5208,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H85" s="2">
         <v>77</v>
@@ -5236,10 +5230,10 @@
         <v>77</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L85" s="2"/>
       <c r="O85" s="2"/>
@@ -5258,28 +5252,28 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>5</v>
@@ -5289,7 +5283,7 @@
       </c>
       <c r="O86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>5</v>
@@ -5299,7 +5293,7 @@
       </c>
       <c r="U86" s="2"/>
       <c r="V86" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -5307,23 +5301,23 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="2"/>
@@ -5332,7 +5326,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V87" s="2"/>
     </row>
@@ -5341,20 +5335,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H88" s="2">
         <v>38</v>
@@ -5363,10 +5357,10 @@
         <v>38</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L88" s="2"/>
       <c r="O88" s="2"/>
@@ -5379,7 +5373,7 @@
       </c>
       <c r="U88" s="2"/>
       <c r="V88" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -5387,28 +5381,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L89" s="2"/>
       <c r="N89" t="s">
@@ -5424,7 +5418,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V89" s="2"/>
     </row>
@@ -5433,28 +5427,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L90" s="2"/>
       <c r="O90" s="2"/>
@@ -5464,7 +5458,7 @@
       </c>
       <c r="T90" s="2"/>
       <c r="U90" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V90" s="2"/>
     </row>
@@ -5473,28 +5467,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L91" s="3"/>
       <c r="O91" s="2"/>
@@ -5507,7 +5501,7 @@
       </c>
       <c r="U91" s="2"/>
       <c r="V91" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test_signup/Amsterdam/NTDS_Utrecht.xlsx
+++ b/test_signup/Amsterdam/NTDS_Utrecht.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="615" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="1815" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="311">
   <si>
     <t>Nr.</t>
   </si>
@@ -1350,8 +1350,8 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:W91"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1564,9 @@
       <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="O4" s="5" t="s">
         <v>28</v>
@@ -1648,9 +1650,7 @@
       <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="5">
-        <v>13</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="4" t="s">
         <v>41</v>
@@ -1847,7 +1847,9 @@
         <v>27</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2026,9 +2028,7 @@
       <c r="G14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="5">
-        <v>5</v>
-      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4" t="s">
         <v>27</v>
@@ -2037,7 +2037,9 @@
         <v>27</v>
       </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O14" s="5" t="s">
         <v>29</v>
       </c>
@@ -2737,14 +2739,14 @@
         <v>41</v>
       </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="5"/>
-      <c r="S29" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="S29" s="4"/>
       <c r="T29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3256,12 +3258,8 @@
       <c r="K40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
       <c r="O40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="S40" s="5"/>
@@ -3763,7 +3761,9 @@
         <v>41</v>
       </c>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="M51" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="S51" s="5"/>
@@ -4419,7 +4419,9 @@
         <v>41</v>
       </c>
       <c r="K65" s="4"/>
-      <c r="L65" s="5"/>
+      <c r="L65" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M65" s="5"/>
       <c r="O65" s="5"/>
       <c r="Q65" s="5"/>
@@ -5510,7 +5512,12 @@
       <c r="K89" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L89" s="5"/>
+      <c r="L89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="N89" s="2" t="s">
         <v>28</v>
       </c>
@@ -6226,7 +6233,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="str">
-        <f t="shared" ref="A194:A225" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
+        <f t="shared" ref="A194:A201" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
         <v/>
       </c>
     </row>
